--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloud/Python/proj_snowball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26733580-4DEF-CD43-90E1-8F010B4E1159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610F26E-38FA-274D-8EC6-C001C399D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{088FF7C6-7A85-1F4B-8CC1-188823C2E433}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{088FF7C6-7A85-1F4B-8CC1-188823C2E433}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="OBDAYS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,15 +119,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>000905.sh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敲入未敲出收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>min(0, s[-1]/self.s0 - 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905.ss</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +137,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -220,10 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -587,7 +587,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -767,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloud/Python/proj_snowball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610F26E-38FA-274D-8EC6-C001C399D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B83406B-C9B3-8F4B-83F5-C16DCBCF50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{088FF7C6-7A85-1F4B-8CC1-188823C2E433}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>要素</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>000905.ss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付金率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303132C4-630A-1648-9CDA-20E3E71A252B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -782,6 +786,17 @@
       </c>
       <c r="C17" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloud/Python/proj_snowball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B83406B-C9B3-8F4B-83F5-C16DCBCF50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22203C83-92EB-D448-92C4-1A618B9F3AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{088FF7C6-7A85-1F4B-8CC1-188823C2E433}"/>
+    <workbookView xWindow="2460" yWindow="760" windowWidth="12140" windowHeight="17440" xr2:uid="{088FF7C6-7A85-1F4B-8CC1-188823C2E433}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>要素</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,15 +122,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>min(0, s[-1]/self.s0 - 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>000905.ss</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>预付金率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYHL-O20230727001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max(min(0, s[-1]/self.s0 -1 ), -0.2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +278,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -591,14 +601,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -619,8 +629,8 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
-        <v>100</v>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -642,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -653,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8">
-        <v>181000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -664,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9">
-        <v>44617</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -675,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>45348</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -686,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>44926</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -697,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="12">
-        <v>6819.43</v>
+        <v>6016.63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -708,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="12">
-        <v>5864.47</v>
+        <v>5528.24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -719,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -730,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="13">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -741,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -752,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="16">
-        <v>0.152</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -763,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="16">
-        <v>0.152</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -774,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -793,10 +803,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC77DD74-414B-0743-9886-F36F4DD471B7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -818,86 +828,186 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4">
-        <v>44956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>45257</v>
+      </c>
+      <c r="B2" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>45287</v>
+      </c>
+      <c r="B3" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>45317</v>
+      </c>
+      <c r="B4" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>45349</v>
+      </c>
+      <c r="B5" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>45378</v>
+      </c>
+      <c r="B6" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
-        <v>45103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>45408</v>
+      </c>
+      <c r="B7" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
-        <v>45132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>45439</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
-        <v>45163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>45470</v>
+      </c>
+      <c r="B9" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>45499</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
-        <v>45224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>45531</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>45562</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
-        <v>45285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>45590</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
-        <v>45316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>45623</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>45653</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>45715</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.04</v>
+      </c>
       <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>45743</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>45772</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>45804</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>45835</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>45863</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>